--- a/Dharish/Survey Genie/Test case.xlsx
+++ b/Dharish/Survey Genie/Test case.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dharish\LCP\PRDs\Survey Genie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amitysoft\Documents\GitHub\LCP-Project\Dharish\Survey Genie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$B$3:$J$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$3:$J$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1811,74 +1811,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1908,6 +1845,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2559,10 +2559,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="71" t="s">
         <v>90</v>
       </c>
       <c r="C2" s="55" t="s">
@@ -2588,8 +2588,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
       <c r="C3" s="55" t="s">
         <v>97</v>
       </c>
@@ -2613,8 +2613,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="55" t="s">
         <v>99</v>
       </c>
@@ -2638,10 +2638,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="72" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="55" t="s">
@@ -2667,8 +2667,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="55" t="s">
         <v>106</v>
       </c>
@@ -2692,8 +2692,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="55" t="s">
         <v>108</v>
       </c>
@@ -2717,10 +2717,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="71" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="55" t="s">
@@ -2746,8 +2746,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="55" t="s">
         <v>114</v>
       </c>
@@ -2771,8 +2771,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="55" t="s">
         <v>116</v>
       </c>
@@ -2796,10 +2796,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="71" t="s">
         <v>119</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -2825,8 +2825,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="55" t="s">
         <v>122</v>
       </c>
@@ -2850,8 +2850,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="55" t="s">
         <v>124</v>
       </c>
@@ -2875,10 +2875,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="71" t="s">
         <v>127</v>
       </c>
       <c r="C14" s="55" t="s">
@@ -2904,8 +2904,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="55" t="s">
         <v>131</v>
       </c>
@@ -2929,8 +2929,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="55" t="s">
         <v>133</v>
       </c>
@@ -2954,10 +2954,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="71" t="s">
         <v>136</v>
       </c>
       <c r="C17" s="55" t="s">
@@ -2983,8 +2983,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="55" t="s">
         <v>140</v>
       </c>
@@ -3008,8 +3008,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="55" t="s">
         <v>141</v>
       </c>
@@ -3033,10 +3033,10 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="71" t="s">
         <v>144</v>
       </c>
       <c r="C20" s="55" t="s">
@@ -3062,8 +3062,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="71"/>
       <c r="C21" s="55" t="s">
         <v>148</v>
       </c>
@@ -3087,8 +3087,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="71"/>
       <c r="C22" s="55" t="s">
         <v>150</v>
       </c>
@@ -3112,10 +3112,10 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="71" t="s">
         <v>153</v>
       </c>
       <c r="C23" s="55" t="s">
@@ -3141,8 +3141,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="71"/>
       <c r="C24" s="55" t="s">
         <v>157</v>
       </c>
@@ -3166,8 +3166,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="71"/>
       <c r="C25" s="55" t="s">
         <v>159</v>
       </c>
@@ -3226,16 +3226,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.85546875" style="49" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" style="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.140625" style="84" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" style="84" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" style="63" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" style="63" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="81.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="50.7109375" style="49" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -3244,34 +3244,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="G1" s="76"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="59" t="s">
         <v>276</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="61" t="s">
         <v>278</v>
       </c>
       <c r="F3" s="52" t="s">
         <v>279</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="59" t="s">
         <v>280</v>
       </c>
       <c r="H3" s="52" t="s">
@@ -3288,22 +3288,22 @@
       <c r="A4" s="57">
         <v>1</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="73" t="s">
         <v>281</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="73" t="s">
         <v>282</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="62" t="s">
         <v>195</v>
       </c>
       <c r="F4" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="G4" s="83" t="s">
+      <c r="G4" s="62" t="s">
         <v>283</v>
       </c>
       <c r="H4" s="50"/>
@@ -3314,18 +3314,18 @@
       <c r="A5" s="57">
         <v>2</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="83" t="s">
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="62" t="s">
         <v>195</v>
       </c>
       <c r="F5" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="62" t="s">
         <v>284</v>
       </c>
       <c r="H5" s="50"/>
@@ -3336,18 +3336,18 @@
       <c r="A6" s="57">
         <v>3</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="83" t="s">
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="62" t="s">
         <v>195</v>
       </c>
       <c r="F6" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="62" t="s">
         <v>285</v>
       </c>
       <c r="H6" s="50"/>
@@ -3358,22 +3358,22 @@
       <c r="A7" s="57">
         <v>4</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="73" t="s">
         <v>286</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="83" t="s">
+      <c r="E7" s="62" t="s">
         <v>199</v>
       </c>
       <c r="F7" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="G7" s="62" t="s">
         <v>288</v>
       </c>
       <c r="H7" s="50"/>
@@ -3384,18 +3384,18 @@
       <c r="A8" s="57">
         <v>5</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="83" t="s">
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="E8" s="83" t="s">
+      <c r="E8" s="62" t="s">
         <v>199</v>
       </c>
       <c r="F8" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="83" t="s">
+      <c r="G8" s="62" t="s">
         <v>289</v>
       </c>
       <c r="H8" s="50"/>
@@ -3406,18 +3406,18 @@
       <c r="A9" s="57">
         <v>6</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="83" t="s">
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="62" t="s">
         <v>199</v>
       </c>
       <c r="F9" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="G9" s="83" t="s">
+      <c r="G9" s="62" t="s">
         <v>290</v>
       </c>
       <c r="H9" s="50"/>
@@ -3428,22 +3428,22 @@
       <c r="A10" s="57">
         <v>7</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="73" t="s">
         <v>291</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="73" t="s">
         <v>292</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="62" t="s">
         <v>203</v>
       </c>
       <c r="F10" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="G10" s="83" t="s">
+      <c r="G10" s="62" t="s">
         <v>293</v>
       </c>
       <c r="H10" s="50"/>
@@ -3454,18 +3454,18 @@
       <c r="A11" s="57">
         <v>8</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="83" t="s">
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="E11" s="83" t="s">
+      <c r="E11" s="62" t="s">
         <v>203</v>
       </c>
       <c r="F11" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="G11" s="83" t="s">
+      <c r="G11" s="62" t="s">
         <v>294</v>
       </c>
       <c r="H11" s="50"/>
@@ -3476,18 +3476,18 @@
       <c r="A12" s="57">
         <v>9</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="83" t="s">
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="62" t="s">
         <v>203</v>
       </c>
       <c r="F12" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="G12" s="83" t="s">
+      <c r="G12" s="62" t="s">
         <v>295</v>
       </c>
       <c r="H12" s="50"/>
@@ -3498,22 +3498,22 @@
       <c r="A13" s="57">
         <v>10</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="73" t="s">
         <v>296</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="73" t="s">
         <v>297</v>
       </c>
-      <c r="D13" s="83" t="s">
+      <c r="D13" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="E13" s="83" t="s">
+      <c r="E13" s="62" t="s">
         <v>207</v>
       </c>
       <c r="F13" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="G13" s="83" t="s">
+      <c r="G13" s="62" t="s">
         <v>298</v>
       </c>
       <c r="H13" s="50"/>
@@ -3524,18 +3524,18 @@
       <c r="A14" s="57">
         <v>11</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="83" t="s">
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="E14" s="83" t="s">
+      <c r="E14" s="62" t="s">
         <v>207</v>
       </c>
       <c r="F14" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="G14" s="83" t="s">
+      <c r="G14" s="62" t="s">
         <v>299</v>
       </c>
       <c r="H14" s="50"/>
@@ -3546,18 +3546,18 @@
       <c r="A15" s="57">
         <v>12</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="83" t="s">
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="E15" s="83" t="s">
+      <c r="E15" s="62" t="s">
         <v>207</v>
       </c>
       <c r="F15" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="G15" s="83" t="s">
+      <c r="G15" s="62" t="s">
         <v>300</v>
       </c>
       <c r="H15" s="50"/>
@@ -3568,22 +3568,22 @@
       <c r="A16" s="57">
         <v>13</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="73" t="s">
         <v>301</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="73" t="s">
         <v>302</v>
       </c>
-      <c r="D16" s="83" t="s">
+      <c r="D16" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="E16" s="83" t="s">
+      <c r="E16" s="62" t="s">
         <v>211</v>
       </c>
       <c r="F16" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="G16" s="83" t="s">
+      <c r="G16" s="62" t="s">
         <v>303</v>
       </c>
       <c r="H16" s="50"/>
@@ -3594,18 +3594,18 @@
       <c r="A17" s="57">
         <v>14</v>
       </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="83" t="s">
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="E17" s="83" t="s">
+      <c r="E17" s="62" t="s">
         <v>211</v>
       </c>
       <c r="F17" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="G17" s="83" t="s">
+      <c r="G17" s="62" t="s">
         <v>304</v>
       </c>
       <c r="H17" s="50"/>
@@ -3616,18 +3616,18 @@
       <c r="A18" s="57">
         <v>15</v>
       </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="83" t="s">
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="E18" s="83" t="s">
+      <c r="E18" s="62" t="s">
         <v>243</v>
       </c>
       <c r="F18" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="G18" s="83" t="s">
+      <c r="G18" s="62" t="s">
         <v>305</v>
       </c>
       <c r="H18" s="50"/>
@@ -3638,22 +3638,22 @@
       <c r="A19" s="57">
         <v>16</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="73" t="s">
         <v>306</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="73" t="s">
         <v>307</v>
       </c>
-      <c r="D19" s="83" t="s">
+      <c r="D19" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="E19" s="83" t="s">
+      <c r="E19" s="62" t="s">
         <v>215</v>
       </c>
       <c r="F19" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="G19" s="83" t="s">
+      <c r="G19" s="62" t="s">
         <v>308</v>
       </c>
       <c r="H19" s="50"/>
@@ -3664,18 +3664,18 @@
       <c r="A20" s="57">
         <v>17</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="83" t="s">
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="E20" s="83" t="s">
+      <c r="E20" s="62" t="s">
         <v>215</v>
       </c>
       <c r="F20" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="G20" s="83" t="s">
+      <c r="G20" s="62" t="s">
         <v>309</v>
       </c>
       <c r="H20" s="50"/>
@@ -3686,18 +3686,18 @@
       <c r="A21" s="57">
         <v>18</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="83" t="s">
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="E21" s="83" t="s">
+      <c r="E21" s="62" t="s">
         <v>215</v>
       </c>
       <c r="F21" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="G21" s="83" t="s">
+      <c r="G21" s="62" t="s">
         <v>305</v>
       </c>
       <c r="H21" s="50"/>
@@ -3705,34 +3705,34 @@
       <c r="J21" s="50"/>
     </row>
     <row r="23" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="G23" s="76"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="G23" s="58"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="59" t="s">
         <v>276</v>
       </c>
-      <c r="D25" s="82" t="s">
+      <c r="D25" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="E25" s="82" t="s">
+      <c r="E25" s="61" t="s">
         <v>278</v>
       </c>
       <c r="F25" s="52" t="s">
         <v>279</v>
       </c>
-      <c r="G25" s="77" t="s">
+      <c r="G25" s="59" t="s">
         <v>280</v>
       </c>
       <c r="H25" s="52" t="s">
@@ -3749,22 +3749,22 @@
       <c r="A26" s="57">
         <v>1</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="73" t="s">
         <v>310</v>
       </c>
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="73" t="s">
         <v>311</v>
       </c>
-      <c r="D26" s="83" t="s">
+      <c r="D26" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="E26" s="83" t="s">
+      <c r="E26" s="62" t="s">
         <v>220</v>
       </c>
       <c r="F26" s="51" t="s">
         <v>263</v>
       </c>
-      <c r="G26" s="83" t="s">
+      <c r="G26" s="62" t="s">
         <v>312</v>
       </c>
       <c r="H26" s="50"/>
@@ -3775,18 +3775,18 @@
       <c r="A27" s="57">
         <v>2</v>
       </c>
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="83" t="s">
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="62" t="s">
         <v>338</v>
       </c>
-      <c r="E27" s="83" t="s">
+      <c r="E27" s="62" t="s">
         <v>220</v>
       </c>
       <c r="F27" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="G27" s="83" t="s">
+      <c r="G27" s="62" t="s">
         <v>313</v>
       </c>
       <c r="H27" s="50"/>
@@ -3797,18 +3797,18 @@
       <c r="A28" s="57">
         <v>3</v>
       </c>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="83" t="s">
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="E28" s="83" t="s">
+      <c r="E28" s="62" t="s">
         <v>220</v>
       </c>
       <c r="F28" s="51" t="s">
         <v>265</v>
       </c>
-      <c r="G28" s="83" t="s">
+      <c r="G28" s="62" t="s">
         <v>314</v>
       </c>
       <c r="H28" s="50"/>
@@ -3819,22 +3819,22 @@
       <c r="A29" s="57">
         <v>4</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="73" t="s">
         <v>315</v>
       </c>
-      <c r="C29" s="78" t="s">
+      <c r="C29" s="73" t="s">
         <v>316</v>
       </c>
-      <c r="D29" s="83" t="s">
+      <c r="D29" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="E29" s="83" t="s">
+      <c r="E29" s="62" t="s">
         <v>223</v>
       </c>
       <c r="F29" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="G29" s="83" t="s">
+      <c r="G29" s="62" t="s">
         <v>317</v>
       </c>
       <c r="H29" s="50"/>
@@ -3845,18 +3845,18 @@
       <c r="A30" s="57">
         <v>5</v>
       </c>
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="83" t="s">
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="62" t="s">
         <v>224</v>
       </c>
-      <c r="E30" s="83" t="s">
+      <c r="E30" s="62" t="s">
         <v>223</v>
       </c>
       <c r="F30" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="G30" s="83" t="s">
+      <c r="G30" s="62" t="s">
         <v>318</v>
       </c>
       <c r="H30" s="50"/>
@@ -3867,18 +3867,18 @@
       <c r="A31" s="57">
         <v>6</v>
       </c>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="83" t="s">
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="E31" s="83" t="s">
+      <c r="E31" s="62" t="s">
         <v>223</v>
       </c>
       <c r="F31" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="G31" s="83" t="s">
+      <c r="G31" s="62" t="s">
         <v>314</v>
       </c>
       <c r="H31" s="50"/>
@@ -3889,22 +3889,22 @@
       <c r="A32" s="57">
         <v>7</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="73" t="s">
         <v>319</v>
       </c>
-      <c r="C32" s="78" t="s">
+      <c r="C32" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="D32" s="83" t="s">
+      <c r="D32" s="62" t="s">
         <v>227</v>
       </c>
-      <c r="E32" s="83" t="s">
+      <c r="E32" s="62" t="s">
         <v>228</v>
       </c>
       <c r="F32" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="G32" s="83" t="s">
+      <c r="G32" s="62" t="s">
         <v>320</v>
       </c>
       <c r="H32" s="50"/>
@@ -3915,18 +3915,18 @@
       <c r="A33" s="57">
         <v>8</v>
       </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="83" t="s">
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="62" t="s">
         <v>271</v>
       </c>
-      <c r="E33" s="83" t="s">
+      <c r="E33" s="62" t="s">
         <v>339</v>
       </c>
       <c r="F33" s="51" t="s">
         <v>270</v>
       </c>
-      <c r="G33" s="83" t="s">
+      <c r="G33" s="62" t="s">
         <v>321</v>
       </c>
       <c r="H33" s="50"/>
@@ -3937,18 +3937,18 @@
       <c r="A34" s="57">
         <v>9</v>
       </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="83" t="s">
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="62" t="s">
         <v>229</v>
       </c>
-      <c r="E34" s="83" t="s">
+      <c r="E34" s="62" t="s">
         <v>228</v>
       </c>
       <c r="F34" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="G34" s="83" t="s">
+      <c r="G34" s="62" t="s">
         <v>314</v>
       </c>
       <c r="H34" s="50"/>
@@ -3959,22 +3959,22 @@
       <c r="A35" s="57">
         <v>10</v>
       </c>
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="73" t="s">
         <v>323</v>
       </c>
-      <c r="C35" s="78" t="s">
+      <c r="C35" s="73" t="s">
         <v>230</v>
       </c>
-      <c r="D35" s="83" t="s">
+      <c r="D35" s="62" t="s">
         <v>231</v>
       </c>
-      <c r="E35" s="83" t="s">
+      <c r="E35" s="62" t="s">
         <v>232</v>
       </c>
       <c r="F35" s="51" t="s">
         <v>324</v>
       </c>
-      <c r="G35" s="83" t="s">
+      <c r="G35" s="62" t="s">
         <v>325</v>
       </c>
       <c r="H35" s="50"/>
@@ -3985,18 +3985,18 @@
       <c r="A36" s="57">
         <v>11</v>
       </c>
-      <c r="B36" s="79"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="83" t="s">
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="62" t="s">
         <v>340</v>
       </c>
-      <c r="E36" s="83" t="s">
+      <c r="E36" s="62" t="s">
         <v>232</v>
       </c>
       <c r="F36" s="51" t="s">
         <v>326</v>
       </c>
-      <c r="G36" s="83" t="s">
+      <c r="G36" s="62" t="s">
         <v>341</v>
       </c>
       <c r="H36" s="50"/>
@@ -4007,18 +4007,18 @@
       <c r="A37" s="57">
         <v>12</v>
       </c>
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="83" t="s">
+      <c r="B37" s="75"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="62" t="s">
         <v>233</v>
       </c>
-      <c r="E37" s="83" t="s">
+      <c r="E37" s="62" t="s">
         <v>232</v>
       </c>
       <c r="F37" s="51" t="s">
         <v>327</v>
       </c>
-      <c r="G37" s="83" t="s">
+      <c r="G37" s="62" t="s">
         <v>314</v>
       </c>
       <c r="H37" s="50"/>
@@ -4029,22 +4029,22 @@
       <c r="A38" s="57">
         <v>13</v>
       </c>
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="73" t="s">
         <v>328</v>
       </c>
-      <c r="C38" s="78" t="s">
+      <c r="C38" s="73" t="s">
         <v>307</v>
       </c>
-      <c r="D38" s="83" t="s">
+      <c r="D38" s="62" t="s">
         <v>234</v>
       </c>
-      <c r="E38" s="83" t="s">
+      <c r="E38" s="62" t="s">
         <v>235</v>
       </c>
       <c r="F38" s="51" t="s">
         <v>329</v>
       </c>
-      <c r="G38" s="83" t="s">
+      <c r="G38" s="62" t="s">
         <v>308</v>
       </c>
       <c r="H38" s="50"/>
@@ -4055,18 +4055,18 @@
       <c r="A39" s="57">
         <v>14</v>
       </c>
-      <c r="B39" s="79"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="83" t="s">
+      <c r="B39" s="74"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="62" t="s">
         <v>236</v>
       </c>
-      <c r="E39" s="83" t="s">
+      <c r="E39" s="62" t="s">
         <v>235</v>
       </c>
       <c r="F39" s="51" t="s">
         <v>330</v>
       </c>
-      <c r="G39" s="83" t="s">
+      <c r="G39" s="62" t="s">
         <v>309</v>
       </c>
       <c r="H39" s="50"/>
@@ -4077,18 +4077,18 @@
       <c r="A40" s="57">
         <v>15</v>
       </c>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="83" t="s">
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="62" t="s">
         <v>237</v>
       </c>
-      <c r="E40" s="83" t="s">
+      <c r="E40" s="62" t="s">
         <v>235</v>
       </c>
       <c r="F40" s="51" t="s">
         <v>331</v>
       </c>
-      <c r="G40" s="83" t="s">
+      <c r="G40" s="62" t="s">
         <v>305</v>
       </c>
       <c r="H40" s="50"/>
@@ -4096,53 +4096,53 @@
       <c r="J40" s="50"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="85"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
     </row>
     <row r="42" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="76" t="s">
+      <c r="A42" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="C42" s="76"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="G42" s="76"/>
-    </row>
-    <row r="43" spans="1:10" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="89"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="91"/>
-      <c r="E43" s="91"/>
-      <c r="G43" s="89"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="G42" s="58"/>
+    </row>
+    <row r="43" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="G43" s="68"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B44" s="77" t="s">
+      <c r="B44" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="77" t="s">
+      <c r="C44" s="59" t="s">
         <v>276</v>
       </c>
-      <c r="D44" s="82" t="s">
+      <c r="D44" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="E44" s="82" t="s">
+      <c r="E44" s="61" t="s">
         <v>278</v>
       </c>
       <c r="F44" s="52" t="s">
         <v>279</v>
       </c>
-      <c r="G44" s="77" t="s">
+      <c r="G44" s="59" t="s">
         <v>280</v>
       </c>
       <c r="H44" s="52" t="s">
@@ -4159,22 +4159,22 @@
       <c r="A45" s="57">
         <v>1</v>
       </c>
-      <c r="B45" s="78" t="s">
+      <c r="B45" s="73" t="s">
         <v>332</v>
       </c>
-      <c r="C45" s="78" t="s">
+      <c r="C45" s="73" t="s">
         <v>316</v>
       </c>
-      <c r="D45" s="83" t="s">
+      <c r="D45" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E45" s="83" t="s">
+      <c r="E45" s="62" t="s">
         <v>240</v>
       </c>
       <c r="F45" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="G45" s="83" t="s">
+      <c r="G45" s="62" t="s">
         <v>333</v>
       </c>
       <c r="H45" s="50"/>
@@ -4185,18 +4185,18 @@
       <c r="A46" s="57">
         <v>2</v>
       </c>
-      <c r="B46" s="79"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="83" t="s">
+      <c r="B46" s="74"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="E46" s="83" t="s">
+      <c r="E46" s="62" t="s">
         <v>240</v>
       </c>
       <c r="F46" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="G46" s="83" t="s">
+      <c r="G46" s="62" t="s">
         <v>318</v>
       </c>
       <c r="H46" s="50"/>
@@ -4207,18 +4207,18 @@
       <c r="A47" s="57">
         <v>3</v>
       </c>
-      <c r="B47" s="80"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="83" t="s">
+      <c r="B47" s="75"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="62" t="s">
         <v>242</v>
       </c>
-      <c r="E47" s="83" t="s">
+      <c r="E47" s="62" t="s">
         <v>240</v>
       </c>
       <c r="F47" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="G47" s="83" t="s">
+      <c r="G47" s="62" t="s">
         <v>314</v>
       </c>
       <c r="H47" s="50"/>
@@ -4229,22 +4229,22 @@
       <c r="A48" s="57">
         <v>4</v>
       </c>
-      <c r="B48" s="78" t="s">
+      <c r="B48" s="73" t="s">
         <v>334</v>
       </c>
-      <c r="C48" s="78" t="s">
+      <c r="C48" s="73" t="s">
         <v>335</v>
       </c>
-      <c r="D48" s="83" t="s">
+      <c r="D48" s="62" t="s">
         <v>244</v>
       </c>
-      <c r="E48" s="83" t="s">
+      <c r="E48" s="62" t="s">
         <v>245</v>
       </c>
       <c r="F48" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="G48" s="83" t="s">
+      <c r="G48" s="62" t="s">
         <v>336</v>
       </c>
       <c r="H48" s="50"/>
@@ -4255,18 +4255,18 @@
       <c r="A49" s="57">
         <v>5</v>
       </c>
-      <c r="B49" s="79"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="83" t="s">
+      <c r="B49" s="74"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="62" t="s">
         <v>342</v>
       </c>
-      <c r="E49" s="83" t="s">
+      <c r="E49" s="62" t="s">
         <v>245</v>
       </c>
       <c r="F49" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="G49" s="83" t="s">
+      <c r="G49" s="62" t="s">
         <v>337</v>
       </c>
       <c r="H49" s="50"/>
@@ -4277,18 +4277,18 @@
       <c r="A50" s="57">
         <v>6</v>
       </c>
-      <c r="B50" s="80"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="83" t="s">
+      <c r="B50" s="75"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="E50" s="83" t="s">
+      <c r="E50" s="62" t="s">
         <v>245</v>
       </c>
       <c r="F50" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="G50" s="83" t="s">
+      <c r="G50" s="62" t="s">
         <v>314</v>
       </c>
       <c r="H50" s="50"/>
@@ -4296,8 +4296,25 @@
       <c r="J50" s="50"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:J50"/>
   <mergeCells count="26">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="C48:C50"/>
     <mergeCell ref="C35:C37"/>
@@ -4306,24 +4323,6 @@
     <mergeCell ref="C38:C40"/>
     <mergeCell ref="C45:C47"/>
     <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4382,20 +4381,20 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="63"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="47" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4483,10 +4482,10 @@
       <c r="A18" s="33">
         <v>1</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="82" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="34" t="s">
@@ -4501,14 +4500,14 @@
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
       <c r="I18" s="34"/>
-      <c r="J18" s="68"/>
+      <c r="J18" s="84"/>
     </row>
     <row r="19" spans="1:10" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A19" s="33">
         <v>2</v>
       </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="67"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="34" t="s">
         <v>27</v>
       </c>
@@ -4521,16 +4520,16 @@
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
       <c r="I19" s="34"/>
-      <c r="J19" s="69"/>
+      <c r="J19" s="85"/>
     </row>
     <row r="20" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="33">
         <v>3</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="82" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="34" t="s">
@@ -4545,14 +4544,14 @@
       <c r="G20" s="36"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
-      <c r="J20" s="69"/>
+      <c r="J20" s="85"/>
     </row>
     <row r="21" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A21" s="33">
         <v>4</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="71"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="87"/>
       <c r="D21" s="34" t="s">
         <v>33</v>
       </c>
@@ -4564,16 +4563,16 @@
       </c>
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
-      <c r="J21" s="69"/>
+      <c r="J21" s="85"/>
     </row>
     <row r="22" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A22" s="33">
         <v>5</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="88" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="34" t="s">
@@ -4588,14 +4587,14 @@
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
-      <c r="J22" s="69"/>
+      <c r="J22" s="85"/>
     </row>
     <row r="23" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A23" s="33">
         <v>6</v>
       </c>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="89"/>
       <c r="D23" s="34" t="s">
         <v>40</v>
       </c>
@@ -4608,7 +4607,7 @@
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
-      <c r="J23" s="69"/>
+      <c r="J23" s="85"/>
     </row>
     <row r="24" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A24" s="33">
@@ -4617,7 +4616,7 @@
       <c r="B24" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="73"/>
+      <c r="C24" s="89"/>
       <c r="D24" s="34" t="s">
         <v>44</v>
       </c>
@@ -4630,7 +4629,7 @@
       <c r="G24" s="34"/>
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
-      <c r="J24" s="69"/>
+      <c r="J24" s="85"/>
     </row>
     <row r="25" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A25" s="33">
@@ -4639,7 +4638,7 @@
       <c r="B25" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="73"/>
+      <c r="C25" s="89"/>
       <c r="D25" s="34" t="s">
         <v>48</v>
       </c>
@@ -4652,7 +4651,7 @@
       <c r="G25" s="34"/>
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
-      <c r="J25" s="69"/>
+      <c r="J25" s="85"/>
     </row>
     <row r="26" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A26" s="33">
@@ -4661,7 +4660,7 @@
       <c r="B26" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="73"/>
+      <c r="C26" s="89"/>
       <c r="D26" s="34" t="s">
         <v>52</v>
       </c>
@@ -4674,7 +4673,7 @@
       <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
-      <c r="J26" s="69"/>
+      <c r="J26" s="85"/>
     </row>
     <row r="27" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A27" s="33">
@@ -4683,7 +4682,7 @@
       <c r="B27" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="73"/>
+      <c r="C27" s="89"/>
       <c r="D27" s="34" t="s">
         <v>56</v>
       </c>
@@ -4696,16 +4695,16 @@
       <c r="G27" s="34"/>
       <c r="H27" s="34"/>
       <c r="I27" s="34"/>
-      <c r="J27" s="69"/>
+      <c r="J27" s="85"/>
     </row>
     <row r="28" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A28" s="33">
         <v>11</v>
       </c>
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="76" t="s">
         <v>60</v>
       </c>
       <c r="D28" s="38" t="s">
@@ -4720,14 +4719,14 @@
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
       <c r="I28" s="34"/>
-      <c r="J28" s="70"/>
+      <c r="J28" s="86"/>
     </row>
     <row r="29" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A29" s="33">
         <v>12</v>
       </c>
-      <c r="B29" s="75"/>
-      <c r="C29" s="60"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="38" t="s">
         <v>64</v>
       </c>
@@ -4740,7 +4739,7 @@
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
       <c r="I29" s="34"/>
-      <c r="J29" s="61"/>
+      <c r="J29" s="77"/>
     </row>
     <row r="30" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="33">
@@ -4764,7 +4763,7 @@
       <c r="G30" s="41"/>
       <c r="H30" s="41"/>
       <c r="I30" s="34"/>
-      <c r="J30" s="61"/>
+      <c r="J30" s="77"/>
     </row>
     <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="33">
@@ -4788,7 +4787,7 @@
       <c r="G31" s="34"/>
       <c r="H31" s="34"/>
       <c r="I31" s="34"/>
-      <c r="J31" s="61"/>
+      <c r="J31" s="77"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="43"/>

--- a/Dharish/Survey Genie/Test case.xlsx
+++ b/Dharish/Survey Genie/Test case.xlsx
@@ -3227,7 +3227,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dharish/Survey Genie/Test case.xlsx
+++ b/Dharish/Survey Genie/Test case.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$3:$J$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$3:$J$24</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="358">
   <si>
     <t xml:space="preserve">                                                                                                                                                                                                                                       </t>
   </si>
@@ -1027,31 +1027,311 @@
     <t xml:space="preserve"> Negative Scenario 2: External employee tries to view survey results with invalid inputs. </t>
   </si>
   <si>
-    <t xml:space="preserve"> 1. Navigate to Categories under Manage. 
+    <t xml:space="preserve"> 1. Navigate to Dashboard. 
+2. View the list of all surveys conducted in the organization. 
+3. Check the counts and details displayed on the dashboard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Navigate to Dashboard. 
+2. Try to access the dashboard without having the required permissions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Navigate to Dashboard. 
+2. View the dashboard with invalid inputs or filters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Navigate to My Survey. 
+2. View the list of surveys created by or assigned to the external admin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Navigate to My Survey. 
+2. Try to access My Survey without having the required permissions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Navigate to My Survey. 
+2. View My Survey with invalid inputs or filters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Navigate to Active Surveys. 
+2. Select an active survey to view. 
+3. Check the report for the selected survey.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Navigate to Active Surveys. 
+2. Try to access active surveys without having the required permissions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative Scenario 1: External admin tries to access active surveys without required permissions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Navigate to My Survey. 
+2. View the list of surveys created by or assigned to the external employee.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Navigate to Survey Results. 
+2. View the results of the surveys the external employee has attempted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Navigate to Survey Results. 
+2. Try to access survey results without having the required permissions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Navigate to Survey Results. 
+2. View survey results with invalid inputs or filters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Description </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pre-conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test Steps </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Expected Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify category creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Category should be created successfully and appear in the list of categories.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Error message should be displayed indicating that the name field is required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Error message should be displayed indicating that the category name already exists.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify question creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Question should be created successfully and appear in the list of questions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Error message should be displayed indicating that the question field is required. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Error message should be displayed indicating that the question text already exists.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify answer submission</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Answers should be submitted successfully, and a confirmation message should be displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Error message should be displayed indicating that all mandatory questions must be answered.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Error message should be displayed indicating that invalid inputs are not allowed in answer fields. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify manage survey access </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Survey should be managed successfully, and changes should be saved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Error message should be displayed indicating insufficient permissions to manage surveys.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Error message should be displayed indicating that required fields must be filled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify report generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reports should be generated successfully, displaying the required data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Error message should be displayed indicating that necessary filters must be applied. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Error message should be displayed indicating that invalid filter inputs are not allowed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify benchmark access </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Benchmark data should be displayed successfully. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Error message should be displayed indicating insufficient permissions to access benchmarks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify dashboard access </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dashboard should display all surveys conducted in the organization with accurate counts and details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Error message should be displayed indicating insufficient permissions to access the dashboard. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Error message should be displayed indicating that invalid inputs or filters are not allowed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify my survey access </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> My Survey page should display all surveys created by or assigned to the external admin. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Error message should be displayed indicating insufficient permissions to access My Survey.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Active surveys and their reports should be displayed accurately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Error message should be displayed indicating insufficient permissions to access active surveys. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Navigate to Active Surveys. 
+2. Select an active survey to view with invalid inputs or filters. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Navigate to Individual Reports. 
+2. Select a report to view. 
+3. Check the status and details of the selected report. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Individual reports with status should be displayed accurately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Navigate to Individual Reports. 
+2. Try to access individual reports without having the required permissions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Navigate to Individual Reports. 
+2. Select a report to view with invalid inputs or filters. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Navigate to Benchmark. 
+2. Select the desired benchmark to view. 
+3. Apply the necessary filters. 
+4. Click the "View" button. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Navigate to Benchmark. 
+2. Try to access the benchmark without having the required permissions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Navigate to Benchmark. 
+2. Select the desired benchmark to view. 
+3. Apply invalid filter inputs. 
+4. Click the "View" button. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> My Survey page should display all surveys created by or assigned to the external employee.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify survey results access</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Survey Results page should display all results for surveys attempted by the external employee.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Error message should be displayed indicating insufficient permissions to access survey results. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative Scenario 1: External admin tries to access the dashboard without required permissions. </t>
+  </si>
+  <si>
+    <t>External admin must be logged in and have access to active surveys and reports.</t>
+  </si>
+  <si>
+    <t>Negative Scenario 1: External admin tries to access individual reports without required permissions.</t>
+  </si>
+  <si>
+    <t>Error message should be displayed indicating insufficient permissions to access individual reports.</t>
+  </si>
+  <si>
+    <t>Negative Scenario 1: External employee tries to access survey results without required permissions.</t>
+  </si>
+  <si>
+    <t>Sl.No.</t>
+  </si>
+  <si>
+    <t>Category was created.</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>category was created with no data</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>category was created with same name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to Questions under Manage. 
 2. Click on the new icon shown on the top left corner above the grid. 
-3. Enter the name of the category in the name field. 
-4. Enter a description in the description field. 
-5. Select status as active or inactive in the status field. 
-6. Click save icon on the top left corner above the name field. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Navigate to Categories under Manage. 
+3. Select a suitable category from the list of categories in the category field. 
+4. Select a suitable sub-category from the list of sub-categories in the sub-category field. 
+5. Select a suitable type from the list of types in the types field. 
+6. Enter the question in the question field. 
+7. Mention if the question is mandatory by checking the “isrequired” checkbox. 
+8. Click save icon on the top left corner above the question field. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to Questions under Manage. 
 2. Click on the new icon shown on the top left corner above the grid. 
-3. Leave the name field empty. 
-4. Enter a description in the description field. 
-5. Select status as active or inactive in the status field. 
-6. Click save icon on the top left corner above the name field. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Navigate to Categories under Manage. 
-2. Click on the new icon shown on the top left corner above the grid. 
-3. Enter a name that already exists in the name field. 
-4. Enter a description in the description field. 
-5. Select status as active or inactive in the status field. 
-6. Click save icon on the top left corner above the name field. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Navigate to Questions under Manage. 
+3. Select a suitable category from the list of categories in the category field. 
+4. Select a suitable sub-category from the list of sub-categories in the sub-category field. 
+5. Select a suitable type from the list of types in the types field. 
+6. Leave the question field empty. 
+7. Mention if the question is mandatory by checking the “isrequired” checkbox. 
+8. Click save icon on the top left corner above the question field. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to Questions under Manage. 
 2. Click on the new icon shown on the top left corner above the grid. 
 3. Select a suitable category from the list of categories in the category field. 
 4. Select a suitable sub-category from the list of sub-categories in the sub-category field. 
@@ -1061,342 +1341,123 @@
 8. Click save icon on the top left corner above the question field. </t>
   </si>
   <si>
-    <t xml:space="preserve"> 1. Navigate to the active survey. 
+    <t>1. Navigate to the active survey. 
 2. Select the survey to participate in. 
 3. Answer the questions displayed in the survey. 
 4. Click the "Submit" button at the end of the survey.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1. Navigate to the active survey. 
+    <t>1. Navigate to the active survey. 
 2. Select the survey to participate in. 
 3. Leave some mandatory questions unanswered. 
 4. Click the "Submit" button at the end of the survey.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1. Navigate to the active survey. 
+    <t>1. Navigate to the active survey. 
 2. Select the survey to participate in. 
 3. Enter invalid inputs in some answer fields. 
 4. Click the "Submit" button at the end of the survey.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1. Navigate to Manage Survey. 
+    <t>1. Navigate to Manage Survey. 
 2. Select an existing survey to edit or create a new survey. 
 3. Make the necessary changes or fill in the required fields. 
 4. Click the "Save" button.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1. Navigate to Manage Survey. 
+    <t>1. Navigate to Manage Survey. 
 2. Try to edit or create a survey without having the required permissions. 
 3. Attempt to save the changes or new survey.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1. Navigate to Manage Survey. 
+    <t>1. Navigate to Manage Survey. 
 2. Select an existing survey to edit or create a new survey. 
 3. Leave some required fields empty. 
 4. Click the "Save" button.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1. Navigate to Reports. 
+    <t>1. Navigate to Reports. 
 2. Select the organization level or user level report. 
 3. Apply the necessary filters. 
 4. Click the "Generate" button.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1. Navigate to Reports. 
+    <t>1. Navigate to Reports. 
 2. Select the organization level or user level report. 
 3. Skip applying necessary filters. 
 4. Click the "Generate" button.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1. Navigate to Reports. 
+    <t>1. Navigate to Reports. 
 2. Select the organization level or user level report. 
 3. Apply invalid filter inputs. 
 4. Click the "Generate" button.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1. Navigate to Benchmark. 
+    <t>1. Navigate to Benchmark. 
 2. Select the desired benchmark to view. 
 3. Apply the necessary filters. 
 4. Click the "View" button.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1. Navigate to Benchmark. 
+    <t>1. Navigate to Benchmark. 
 2. Try to access the benchmark without having the required permissions.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1. Navigate to Benchmark. 
+    <t>1. Navigate to Benchmark. 
 2. Select the desired benchmark to view. 
 3. Apply invalid filter inputs. 
 4. Click the "View" button.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1. Navigate to Dashboard. 
-2. View the list of all surveys conducted in the organization. 
-3. Check the counts and details displayed on the dashboard.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Navigate to Dashboard. 
-2. Try to access the dashboard without having the required permissions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Navigate to Dashboard. 
-2. View the dashboard with invalid inputs or filters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Navigate to My Survey. 
-2. View the list of surveys created by or assigned to the external admin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Navigate to My Survey. 
-2. Try to access My Survey without having the required permissions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Navigate to My Survey. 
-2. View My Survey with invalid inputs or filters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Navigate to Active Surveys. 
-2. Select an active survey to view. 
-3. Check the report for the selected survey.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Navigate to Active Surveys. 
-2. Try to access active surveys without having the required permissions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negative Scenario 1: External admin tries to access active surveys without required permissions. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Navigate to My Survey. 
-2. View the list of surveys created by or assigned to the external employee.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Navigate to Survey Results. 
-2. View the results of the surveys the external employee has attempted.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Navigate to Survey Results. 
-2. Try to access survey results without having the required permissions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Navigate to Survey Results. 
-2. View survey results with invalid inputs or filters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Test Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Description </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pre-conditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Test Steps </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Expected Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TC001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Verify category creation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Category should be created successfully and appear in the list of categories.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Error message should be displayed indicating that the name field is required.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Error message should be displayed indicating that the category name already exists.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TC002</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Verify question creation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Question should be created successfully and appear in the list of questions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Error message should be displayed indicating that the question field is required. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Error message should be displayed indicating that the question text already exists.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TC003</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Verify answer submission</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Answers should be submitted successfully, and a confirmation message should be displayed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Error message should be displayed indicating that all mandatory questions must be answered.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Error message should be displayed indicating that invalid inputs are not allowed in answer fields. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TC004</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Verify manage survey access </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Survey should be managed successfully, and changes should be saved.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Error message should be displayed indicating insufficient permissions to manage surveys.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Error message should be displayed indicating that required fields must be filled.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TC005</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Verify report generation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Reports should be generated successfully, displaying the required data.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Error message should be displayed indicating that necessary filters must be applied. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Error message should be displayed indicating that invalid filter inputs are not allowed. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TC006</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Verify benchmark access </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Benchmark data should be displayed successfully. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Error message should be displayed indicating insufficient permissions to access benchmarks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TC007</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Verify dashboard access </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dashboard should display all surveys conducted in the organization with accurate counts and details.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Error message should be displayed indicating insufficient permissions to access the dashboard. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Error message should be displayed indicating that invalid inputs or filters are not allowed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TC008</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Verify my survey access </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> My Survey page should display all surveys created by or assigned to the external admin. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Error message should be displayed indicating insufficient permissions to access My Survey.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TC009</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Active surveys and their reports should be displayed accurately.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Error message should be displayed indicating insufficient permissions to access active surveys. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Navigate to Active Surveys. 
-2. Select an active survey to view with invalid inputs or filters. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TC010</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Navigate to Individual Reports. 
-2. Select a report to view. 
-3. Check the status and details of the selected report. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Individual reports with status should be displayed accurately.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Navigate to Individual Reports. 
-2. Try to access individual reports without having the required permissions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Navigate to Individual Reports. 
-2. Select a report to view with invalid inputs or filters. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TC011</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Navigate to Benchmark. 
-2. Select the desired benchmark to view. 
-3. Apply the necessary filters. 
-4. Click the "View" button. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Navigate to Benchmark. 
-2. Try to access the benchmark without having the required permissions. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Navigate to Benchmark. 
-2. Select the desired benchmark to view. 
-3. Apply invalid filter inputs. 
-4. Click the "View" button. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TC012</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> My Survey page should display all surveys created by or assigned to the external employee.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TC013</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Verify survey results access</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Survey Results page should display all results for surveys attempted by the external employee.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Error message should be displayed indicating insufficient permissions to access survey results. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negative Scenario 1: External admin tries to access the dashboard without required permissions. </t>
-  </si>
-  <si>
-    <t>External admin must be logged in and have access to active surveys and reports.</t>
-  </si>
-  <si>
-    <t>Negative Scenario 1: External admin tries to access individual reports without required permissions.</t>
-  </si>
-  <si>
-    <t>Error message should be displayed indicating insufficient permissions to access individual reports.</t>
-  </si>
-  <si>
-    <t>Negative Scenario 1: External employee tries to access survey results without required permissions.</t>
-  </si>
-  <si>
-    <t>Sl.No.</t>
+    <t>Question has been created successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify sub-category creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This test case verifies that an alumni employee can create new sub-category with valid inputs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Negative Scenario 1: Alumni employee tries to create a sub-category without entering a name. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Negative Scenario 2: Alumni employee tries to create a sub-category with a name that already exists. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alumni employee must be logged in and have access to create sub-categories. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to Categories under Manage. 
+2. Click on the new icon shown on the top left corner above the grid. 
+3. Enter the name of the category in the name field. 
+4. Enter a description in the description field. 
+5. Select status as active or inactive in the status field. 
+6. Click save icon on the top left corner above the name field. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to Categories under Manage. 
+2. Click on the new icon shown on the top left corner above the grid. 
+3. Leave the name field empty. 
+4. Enter a description in the description field. 
+5. Select status as active or inactive in the status field. 
+6. Click save icon on the top left corner above the name field. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to Categories under Manage. 
+2. Click on the new icon shown on the top left corner above the grid. 
+3. Enter a name that already exists in the name field. 
+4. Enter a description in the description field. 
+5. Select status as active or inactive in the status field. 
+6. Click save icon on the top left corner above the name field. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to Categories under Manage. 
+2. Click on the edit icon shown on the left corner above the grid. 
+3. Enter the name of the category in the name field. 
+4. Enter a description in the description field. 
+5. Select status as active or inactive in the status field. 
+6. Click save icon on the top left corner above the name field. </t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1593,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1566,6 +1627,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3F3F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1672,7 +1745,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1850,6 +1923,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1909,6 +1985,20 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1916,6 +2006,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3F3F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2559,10 +2654,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="72" t="s">
         <v>90</v>
       </c>
       <c r="C2" s="55" t="s">
@@ -2588,8 +2683,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="55" t="s">
         <v>97</v>
       </c>
@@ -2613,8 +2708,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="55" t="s">
         <v>99</v>
       </c>
@@ -2638,10 +2733,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="73" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="55" t="s">
@@ -2667,8 +2762,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="55" t="s">
         <v>106</v>
       </c>
@@ -2692,8 +2787,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="55" t="s">
         <v>108</v>
       </c>
@@ -2717,10 +2812,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="72" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="55" t="s">
@@ -2746,8 +2841,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="71"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="55" t="s">
         <v>114</v>
       </c>
@@ -2771,8 +2866,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="55" t="s">
         <v>116</v>
       </c>
@@ -2796,10 +2891,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="72" t="s">
         <v>119</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -2825,8 +2920,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
-      <c r="B12" s="71"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="55" t="s">
         <v>122</v>
       </c>
@@ -2850,8 +2945,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="55" t="s">
         <v>124</v>
       </c>
@@ -2875,10 +2970,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="72" t="s">
         <v>127</v>
       </c>
       <c r="C14" s="55" t="s">
@@ -2904,8 +2999,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="55" t="s">
         <v>131</v>
       </c>
@@ -2929,8 +3024,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="55" t="s">
         <v>133</v>
       </c>
@@ -2954,10 +3049,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="72" t="s">
         <v>136</v>
       </c>
       <c r="C17" s="55" t="s">
@@ -2983,8 +3078,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="55" t="s">
         <v>140</v>
       </c>
@@ -3008,8 +3103,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
-      <c r="B19" s="71"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="55" t="s">
         <v>141</v>
       </c>
@@ -3033,10 +3128,10 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="72" t="s">
         <v>144</v>
       </c>
       <c r="C20" s="55" t="s">
@@ -3062,8 +3157,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="71"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
       <c r="C21" s="55" t="s">
         <v>148</v>
       </c>
@@ -3087,8 +3182,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
-      <c r="B22" s="71"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="55" t="s">
         <v>150</v>
       </c>
@@ -3112,10 +3207,10 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="72" t="s">
         <v>153</v>
       </c>
       <c r="C23" s="55" t="s">
@@ -3141,8 +3236,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A24" s="71"/>
-      <c r="B24" s="71"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="72"/>
       <c r="C24" s="55" t="s">
         <v>157</v>
       </c>
@@ -3166,8 +3261,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A25" s="71"/>
-      <c r="B25" s="71"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="72"/>
       <c r="C25" s="55" t="s">
         <v>159</v>
       </c>
@@ -3224,10 +3319,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3254,25 +3349,25 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="B3" s="59" t="s">
         <v>85</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="E3" s="61" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="G3" s="59" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="H3" s="52" t="s">
         <v>86</v>
@@ -3288,554 +3383,582 @@
       <c r="A4" s="57">
         <v>1</v>
       </c>
-      <c r="B4" s="73" t="s">
-        <v>281</v>
-      </c>
-      <c r="C4" s="73" t="s">
-        <v>282</v>
-      </c>
-      <c r="D4" s="62" t="s">
+      <c r="B4" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" s="96" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="F4" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="G4" s="62" t="s">
-        <v>283</v>
-      </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="F4" s="97" t="s">
+        <v>354</v>
+      </c>
+      <c r="G4" s="96" t="s">
+        <v>267</v>
+      </c>
+      <c r="H4" s="98" t="s">
+        <v>328</v>
+      </c>
+      <c r="I4" s="98" t="s">
+        <v>329</v>
+      </c>
       <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="57">
         <v>2</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="62" t="s">
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="93" t="s">
         <v>196</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="93" t="s">
         <v>195</v>
       </c>
-      <c r="F5" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="G5" s="62" t="s">
-        <v>284</v>
-      </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
+      <c r="F5" s="94" t="s">
+        <v>355</v>
+      </c>
+      <c r="G5" s="93" t="s">
+        <v>268</v>
+      </c>
+      <c r="H5" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="I5" s="95" t="s">
+        <v>331</v>
+      </c>
       <c r="J5" s="50"/>
     </row>
     <row r="6" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="57">
         <v>3</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="62" t="s">
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="93" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="93" t="s">
         <v>195</v>
       </c>
-      <c r="F6" s="51" t="s">
-        <v>249</v>
-      </c>
-      <c r="G6" s="62" t="s">
-        <v>285</v>
-      </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
+      <c r="F6" s="94" t="s">
+        <v>356</v>
+      </c>
+      <c r="G6" s="93" t="s">
+        <v>269</v>
+      </c>
+      <c r="H6" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="I6" s="95" t="s">
+        <v>331</v>
+      </c>
       <c r="J6" s="50"/>
     </row>
-    <row r="7" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="57">
+    <row r="7" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="71">
         <v>4</v>
       </c>
-      <c r="B7" s="73" t="s">
-        <v>286</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>287</v>
-      </c>
-      <c r="D7" s="62" t="s">
+      <c r="B7" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>349</v>
+      </c>
+      <c r="D7" s="96" t="s">
+        <v>350</v>
+      </c>
+      <c r="E7" s="96" t="s">
+        <v>353</v>
+      </c>
+      <c r="F7" s="97" t="s">
+        <v>357</v>
+      </c>
+      <c r="G7" s="96" t="s">
+        <v>267</v>
+      </c>
+      <c r="H7" s="98" t="s">
+        <v>328</v>
+      </c>
+      <c r="I7" s="98" t="s">
+        <v>329</v>
+      </c>
+      <c r="J7" s="50"/>
+    </row>
+    <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="71">
+        <v>5</v>
+      </c>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="93" t="s">
+        <v>351</v>
+      </c>
+      <c r="E8" s="93" t="s">
+        <v>353</v>
+      </c>
+      <c r="F8" s="94" t="s">
+        <v>355</v>
+      </c>
+      <c r="G8" s="93" t="s">
+        <v>268</v>
+      </c>
+      <c r="H8" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="I8" s="95" t="s">
+        <v>331</v>
+      </c>
+      <c r="J8" s="50"/>
+    </row>
+    <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="71">
+        <v>6</v>
+      </c>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="93" t="s">
+        <v>352</v>
+      </c>
+      <c r="E9" s="93" t="s">
+        <v>353</v>
+      </c>
+      <c r="F9" s="94" t="s">
+        <v>356</v>
+      </c>
+      <c r="G9" s="93" t="s">
+        <v>269</v>
+      </c>
+      <c r="H9" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="I9" s="95" t="s">
+        <v>331</v>
+      </c>
+      <c r="J9" s="50"/>
+    </row>
+    <row r="10" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="71">
+        <v>7</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E10" s="96" t="s">
         <v>199</v>
       </c>
-      <c r="F7" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="G7" s="62" t="s">
-        <v>288</v>
-      </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-    </row>
-    <row r="8" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="57">
-        <v>5</v>
-      </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="62" t="s">
+      <c r="F10" s="97" t="s">
+        <v>333</v>
+      </c>
+      <c r="G10" s="96" t="s">
+        <v>272</v>
+      </c>
+      <c r="H10" s="98" t="s">
+        <v>348</v>
+      </c>
+      <c r="I10" s="98" t="s">
+        <v>329</v>
+      </c>
+      <c r="J10" s="50"/>
+    </row>
+    <row r="11" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="71">
+        <v>8</v>
+      </c>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E11" s="62" t="s">
         <v>199</v>
       </c>
-      <c r="F8" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="G8" s="62" t="s">
-        <v>289</v>
-      </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-    </row>
-    <row r="9" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="57">
-        <v>6</v>
-      </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="E9" s="62" t="s">
-        <v>199</v>
-      </c>
-      <c r="F9" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="G9" s="62" t="s">
-        <v>290</v>
-      </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-    </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="57">
-        <v>7</v>
-      </c>
-      <c r="B10" s="73" t="s">
-        <v>291</v>
-      </c>
-      <c r="C10" s="73" t="s">
-        <v>292</v>
-      </c>
-      <c r="D10" s="62" t="s">
-        <v>202</v>
-      </c>
-      <c r="E10" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>251</v>
-      </c>
-      <c r="G10" s="62" t="s">
-        <v>293</v>
-      </c>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-    </row>
-    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="57">
-        <v>8</v>
-      </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="62" t="s">
-        <v>204</v>
-      </c>
-      <c r="E11" s="62" t="s">
-        <v>203</v>
-      </c>
       <c r="F11" s="51" t="s">
-        <v>252</v>
+        <v>334</v>
       </c>
       <c r="G11" s="62" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="H11" s="50"/>
       <c r="I11" s="50"/>
       <c r="J11" s="50"/>
     </row>
-    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="57">
+    <row r="12" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="71">
         <v>9</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="62" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>253</v>
+        <v>335</v>
       </c>
       <c r="G12" s="62" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="H12" s="50"/>
       <c r="I12" s="50"/>
       <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="57">
+      <c r="A13" s="71">
         <v>10</v>
       </c>
-      <c r="B13" s="73" t="s">
-        <v>296</v>
-      </c>
-      <c r="C13" s="73" t="s">
-        <v>297</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>206</v>
-      </c>
-      <c r="E13" s="62" t="s">
-        <v>207</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>254</v>
-      </c>
-      <c r="G13" s="62" t="s">
-        <v>298</v>
+      <c r="B13" s="74" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13" s="96" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="97" t="s">
+        <v>336</v>
+      </c>
+      <c r="G13" s="96" t="s">
+        <v>277</v>
       </c>
       <c r="H13" s="50"/>
       <c r="I13" s="50"/>
       <c r="J13" s="50"/>
     </row>
-    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="57">
+    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="71">
         <v>11</v>
       </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
       <c r="D14" s="62" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E14" s="62" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>255</v>
+        <v>337</v>
       </c>
       <c r="G14" s="62" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
       <c r="J14" s="50"/>
     </row>
     <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="57">
+      <c r="A15" s="71">
         <v>12</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
       <c r="D15" s="62" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E15" s="62" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>256</v>
+        <v>338</v>
       </c>
       <c r="G15" s="62" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="H15" s="50"/>
       <c r="I15" s="50"/>
       <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="57">
+      <c r="A16" s="71">
         <v>13</v>
       </c>
-      <c r="B16" s="73" t="s">
-        <v>301</v>
-      </c>
-      <c r="C16" s="73" t="s">
-        <v>302</v>
-      </c>
-      <c r="D16" s="62" t="s">
-        <v>210</v>
-      </c>
-      <c r="E16" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="F16" s="51" t="s">
-        <v>257</v>
-      </c>
-      <c r="G16" s="62" t="s">
-        <v>303</v>
+      <c r="B16" s="74" t="s">
+        <v>280</v>
+      </c>
+      <c r="C16" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="D16" s="96" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="96" t="s">
+        <v>207</v>
+      </c>
+      <c r="F16" s="97" t="s">
+        <v>339</v>
+      </c>
+      <c r="G16" s="96" t="s">
+        <v>282</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="50"/>
       <c r="J16" s="50"/>
     </row>
-    <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="57">
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="71">
         <v>14</v>
       </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="62" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E17" s="62" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F17" s="51" t="s">
-        <v>258</v>
+        <v>340</v>
       </c>
       <c r="G17" s="62" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="H17" s="50"/>
       <c r="I17" s="50"/>
       <c r="J17" s="50"/>
     </row>
     <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="57">
+      <c r="A18" s="71">
         <v>15</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
       <c r="D18" s="62" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E18" s="62" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>259</v>
+        <v>341</v>
       </c>
       <c r="G18" s="62" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="H18" s="50"/>
       <c r="I18" s="50"/>
       <c r="J18" s="50"/>
     </row>
     <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="57">
+      <c r="A19" s="71">
         <v>16</v>
       </c>
-      <c r="B19" s="73" t="s">
-        <v>306</v>
-      </c>
-      <c r="C19" s="73" t="s">
-        <v>307</v>
-      </c>
-      <c r="D19" s="62" t="s">
-        <v>214</v>
-      </c>
-      <c r="E19" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="F19" s="51" t="s">
-        <v>260</v>
-      </c>
-      <c r="G19" s="62" t="s">
-        <v>308</v>
+      <c r="B19" s="74" t="s">
+        <v>285</v>
+      </c>
+      <c r="C19" s="74" t="s">
+        <v>286</v>
+      </c>
+      <c r="D19" s="96" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" s="96" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" s="97" t="s">
+        <v>342</v>
+      </c>
+      <c r="G19" s="96" t="s">
+        <v>287</v>
       </c>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
       <c r="J19" s="50"/>
     </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="57">
+    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="71">
         <v>17</v>
       </c>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="62" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E20" s="62" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>261</v>
+        <v>343</v>
       </c>
       <c r="G20" s="62" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="H20" s="50"/>
       <c r="I20" s="50"/>
       <c r="J20" s="50"/>
     </row>
     <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="57">
+      <c r="A21" s="71">
         <v>18</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
       <c r="D21" s="62" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E21" s="62" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="F21" s="51" t="s">
-        <v>262</v>
+        <v>344</v>
       </c>
       <c r="G21" s="62" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="H21" s="50"/>
       <c r="I21" s="50"/>
       <c r="J21" s="50"/>
     </row>
-    <row r="23" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58" t="s">
+    <row r="22" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="57">
+        <v>19</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>290</v>
+      </c>
+      <c r="C22" s="74" t="s">
+        <v>291</v>
+      </c>
+      <c r="D22" s="96" t="s">
+        <v>214</v>
+      </c>
+      <c r="E22" s="96" t="s">
+        <v>215</v>
+      </c>
+      <c r="F22" s="97" t="s">
+        <v>345</v>
+      </c>
+      <c r="G22" s="96" t="s">
+        <v>292</v>
+      </c>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="57">
+        <v>20</v>
+      </c>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="E23" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="F23" s="51" t="s">
+        <v>346</v>
+      </c>
+      <c r="G23" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+    </row>
+    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="57">
+        <v>21</v>
+      </c>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="E24" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>347</v>
+      </c>
+      <c r="G24" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+    </row>
+    <row r="26" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="G23" s="58"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="52" t="s">
-        <v>343</v>
-      </c>
-      <c r="B25" s="59" t="s">
+      <c r="C26" s="58"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="G26" s="58"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="52" t="s">
+        <v>327</v>
+      </c>
+      <c r="B28" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="59" t="s">
-        <v>276</v>
-      </c>
-      <c r="D25" s="61" t="s">
-        <v>277</v>
-      </c>
-      <c r="E25" s="61" t="s">
-        <v>278</v>
-      </c>
-      <c r="F25" s="52" t="s">
-        <v>279</v>
-      </c>
-      <c r="G25" s="59" t="s">
-        <v>280</v>
-      </c>
-      <c r="H25" s="52" t="s">
+      <c r="C28" s="59" t="s">
+        <v>260</v>
+      </c>
+      <c r="D28" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="E28" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F28" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="G28" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="H28" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="I25" s="52" t="s">
+      <c r="I28" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="J25" s="52" t="s">
+      <c r="J28" s="52" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="57">
+    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="57">
         <v>1</v>
       </c>
-      <c r="B26" s="73" t="s">
-        <v>310</v>
-      </c>
-      <c r="C26" s="73" t="s">
-        <v>311</v>
-      </c>
-      <c r="D26" s="62" t="s">
+      <c r="B29" s="74" t="s">
+        <v>294</v>
+      </c>
+      <c r="C29" s="74" t="s">
+        <v>295</v>
+      </c>
+      <c r="D29" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="E26" s="62" t="s">
+      <c r="E29" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="F26" s="51" t="s">
-        <v>263</v>
-      </c>
-      <c r="G26" s="62" t="s">
-        <v>312</v>
-      </c>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-    </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="57">
-        <v>2</v>
-      </c>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="62" t="s">
-        <v>338</v>
-      </c>
-      <c r="E27" s="62" t="s">
-        <v>220</v>
-      </c>
-      <c r="F27" s="51" t="s">
-        <v>264</v>
-      </c>
-      <c r="G27" s="62" t="s">
-        <v>313</v>
-      </c>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-    </row>
-    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="57">
-        <v>3</v>
-      </c>
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="E28" s="62" t="s">
-        <v>220</v>
-      </c>
-      <c r="F28" s="51" t="s">
-        <v>265</v>
-      </c>
-      <c r="G28" s="62" t="s">
-        <v>314</v>
-      </c>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-    </row>
-    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="57">
-        <v>4</v>
-      </c>
-      <c r="B29" s="73" t="s">
-        <v>315</v>
-      </c>
-      <c r="C29" s="73" t="s">
-        <v>316</v>
-      </c>
-      <c r="D29" s="62" t="s">
-        <v>222</v>
-      </c>
-      <c r="E29" s="62" t="s">
-        <v>223</v>
-      </c>
       <c r="F29" s="51" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="G29" s="62" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="H29" s="50"/>
       <c r="I29" s="50"/>
@@ -3843,21 +3966,21 @@
     </row>
     <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="57">
-        <v>5</v>
-      </c>
-      <c r="B30" s="74"/>
-      <c r="C30" s="74"/>
+        <v>2</v>
+      </c>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
       <c r="D30" s="62" t="s">
-        <v>224</v>
+        <v>322</v>
       </c>
       <c r="E30" s="62" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F30" s="51" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="G30" s="62" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="H30" s="50"/>
       <c r="I30" s="50"/>
@@ -3865,47 +3988,47 @@
     </row>
     <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="57">
-        <v>6</v>
-      </c>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
+        <v>3</v>
+      </c>
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
       <c r="D31" s="62" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E31" s="62" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F31" s="51" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="G31" s="62" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="H31" s="50"/>
       <c r="I31" s="50"/>
       <c r="J31" s="50"/>
     </row>
-    <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="57">
-        <v>7</v>
-      </c>
-      <c r="B32" s="73" t="s">
-        <v>319</v>
-      </c>
-      <c r="C32" s="73" t="s">
-        <v>226</v>
+        <v>4</v>
+      </c>
+      <c r="B32" s="74" t="s">
+        <v>299</v>
+      </c>
+      <c r="C32" s="74" t="s">
+        <v>300</v>
       </c>
       <c r="D32" s="62" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E32" s="62" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F32" s="51" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="G32" s="62" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="H32" s="50"/>
       <c r="I32" s="50"/>
@@ -3913,21 +4036,21 @@
     </row>
     <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="57">
-        <v>8</v>
-      </c>
-      <c r="B33" s="74"/>
-      <c r="C33" s="74"/>
+        <v>5</v>
+      </c>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="62" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="E33" s="62" t="s">
-        <v>339</v>
+        <v>223</v>
       </c>
       <c r="F33" s="51" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="G33" s="62" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="H33" s="50"/>
       <c r="I33" s="50"/>
@@ -3935,21 +4058,21 @@
     </row>
     <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="57">
-        <v>9</v>
-      </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
+        <v>6</v>
+      </c>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="62" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E34" s="62" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F34" s="51" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="G34" s="62" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="H34" s="50"/>
       <c r="I34" s="50"/>
@@ -3957,25 +4080,25 @@
     </row>
     <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="57">
-        <v>10</v>
-      </c>
-      <c r="B35" s="73" t="s">
-        <v>323</v>
-      </c>
-      <c r="C35" s="73" t="s">
-        <v>230</v>
+        <v>7</v>
+      </c>
+      <c r="B35" s="74" t="s">
+        <v>303</v>
+      </c>
+      <c r="C35" s="74" t="s">
+        <v>226</v>
       </c>
       <c r="D35" s="62" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E35" s="62" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F35" s="51" t="s">
-        <v>324</v>
+        <v>253</v>
       </c>
       <c r="G35" s="62" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="H35" s="50"/>
       <c r="I35" s="50"/>
@@ -3983,21 +4106,21 @@
     </row>
     <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="57">
-        <v>11</v>
-      </c>
-      <c r="B36" s="74"/>
-      <c r="C36" s="74"/>
+        <v>8</v>
+      </c>
+      <c r="B36" s="75"/>
+      <c r="C36" s="75"/>
       <c r="D36" s="62" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="E36" s="62" t="s">
-        <v>232</v>
+        <v>323</v>
       </c>
       <c r="F36" s="51" t="s">
-        <v>326</v>
+        <v>254</v>
       </c>
       <c r="G36" s="62" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="H36" s="50"/>
       <c r="I36" s="50"/>
@@ -4005,47 +4128,47 @@
     </row>
     <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="57">
-        <v>12</v>
-      </c>
-      <c r="B37" s="75"/>
-      <c r="C37" s="75"/>
+        <v>9</v>
+      </c>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
       <c r="D37" s="62" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E37" s="62" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F37" s="51" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="G37" s="62" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="H37" s="50"/>
       <c r="I37" s="50"/>
       <c r="J37" s="50"/>
     </row>
-    <row r="38" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="57">
-        <v>13</v>
-      </c>
-      <c r="B38" s="73" t="s">
-        <v>328</v>
-      </c>
-      <c r="C38" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="74" t="s">
         <v>307</v>
       </c>
+      <c r="C38" s="74" t="s">
+        <v>230</v>
+      </c>
       <c r="D38" s="62" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E38" s="62" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F38" s="51" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="G38" s="62" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H38" s="50"/>
       <c r="I38" s="50"/>
@@ -4053,199 +4176,199 @@
     </row>
     <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="57">
-        <v>14</v>
-      </c>
-      <c r="B39" s="74"/>
-      <c r="C39" s="74"/>
+        <v>11</v>
+      </c>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
       <c r="D39" s="62" t="s">
-        <v>236</v>
+        <v>324</v>
       </c>
       <c r="E39" s="62" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F39" s="51" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="G39" s="62" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="H39" s="50"/>
       <c r="I39" s="50"/>
       <c r="J39" s="50"/>
     </row>
-    <row r="40" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="57">
-        <v>15</v>
-      </c>
-      <c r="B40" s="75"/>
-      <c r="C40" s="75"/>
+        <v>12</v>
+      </c>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
       <c r="D40" s="62" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E40" s="62" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F40" s="51" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="G40" s="62" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="H40" s="50"/>
       <c r="I40" s="50"/>
       <c r="J40" s="50"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="64"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
-    </row>
-    <row r="42" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="58" t="s">
+    <row r="41" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="57">
+        <v>13</v>
+      </c>
+      <c r="B41" s="74" t="s">
+        <v>312</v>
+      </c>
+      <c r="C41" s="74" t="s">
+        <v>291</v>
+      </c>
+      <c r="D41" s="62" t="s">
+        <v>234</v>
+      </c>
+      <c r="E41" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="F41" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="G41" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+    </row>
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="57">
+        <v>14</v>
+      </c>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="E42" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="F42" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="G42" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+    </row>
+    <row r="43" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="57">
+        <v>15</v>
+      </c>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="E43" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="F43" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="G43" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="64"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+    </row>
+    <row r="45" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="C42" s="58"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="G42" s="58"/>
-    </row>
-    <row r="43" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="G43" s="68"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="52" t="s">
-        <v>343</v>
-      </c>
-      <c r="B44" s="59" t="s">
+      <c r="C45" s="58"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="G45" s="58"/>
+    </row>
+    <row r="46" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="68"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="G46" s="68"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="52" t="s">
+        <v>327</v>
+      </c>
+      <c r="B47" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="59" t="s">
-        <v>276</v>
-      </c>
-      <c r="D44" s="61" t="s">
-        <v>277</v>
-      </c>
-      <c r="E44" s="61" t="s">
-        <v>278</v>
-      </c>
-      <c r="F44" s="52" t="s">
-        <v>279</v>
-      </c>
-      <c r="G44" s="59" t="s">
-        <v>280</v>
-      </c>
-      <c r="H44" s="52" t="s">
+      <c r="C47" s="59" t="s">
+        <v>260</v>
+      </c>
+      <c r="D47" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="E47" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F47" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="G47" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="H47" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="I44" s="52" t="s">
+      <c r="I47" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="J44" s="52" t="s">
+      <c r="J47" s="52" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="57">
-        <v>1</v>
-      </c>
-      <c r="B45" s="73" t="s">
-        <v>332</v>
-      </c>
-      <c r="C45" s="73" t="s">
-        <v>316</v>
-      </c>
-      <c r="D45" s="62" t="s">
-        <v>239</v>
-      </c>
-      <c r="E45" s="62" t="s">
-        <v>240</v>
-      </c>
-      <c r="F45" s="51" t="s">
-        <v>272</v>
-      </c>
-      <c r="G45" s="62" t="s">
-        <v>333</v>
-      </c>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-    </row>
-    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="57">
-        <v>2</v>
-      </c>
-      <c r="B46" s="74"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="62" t="s">
-        <v>241</v>
-      </c>
-      <c r="E46" s="62" t="s">
-        <v>240</v>
-      </c>
-      <c r="F46" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="G46" s="62" t="s">
-        <v>318</v>
-      </c>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-    </row>
-    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="57">
-        <v>3</v>
-      </c>
-      <c r="B47" s="75"/>
-      <c r="C47" s="75"/>
-      <c r="D47" s="62" t="s">
-        <v>242</v>
-      </c>
-      <c r="E47" s="62" t="s">
-        <v>240</v>
-      </c>
-      <c r="F47" s="51" t="s">
-        <v>268</v>
-      </c>
-      <c r="G47" s="62" t="s">
-        <v>314</v>
-      </c>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
     </row>
     <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="57">
-        <v>4</v>
-      </c>
-      <c r="B48" s="73" t="s">
-        <v>334</v>
-      </c>
-      <c r="C48" s="73" t="s">
-        <v>335</v>
+        <v>1</v>
+      </c>
+      <c r="B48" s="74" t="s">
+        <v>316</v>
+      </c>
+      <c r="C48" s="74" t="s">
+        <v>300</v>
       </c>
       <c r="D48" s="62" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E48" s="62" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F48" s="51" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="G48" s="62" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="H48" s="50"/>
       <c r="I48" s="50"/>
@@ -4253,21 +4376,21 @@
     </row>
     <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="57">
-        <v>5</v>
-      </c>
-      <c r="B49" s="74"/>
-      <c r="C49" s="74"/>
+        <v>2</v>
+      </c>
+      <c r="B49" s="75"/>
+      <c r="C49" s="75"/>
       <c r="D49" s="62" t="s">
-        <v>342</v>
+        <v>241</v>
       </c>
       <c r="E49" s="62" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F49" s="51" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="G49" s="62" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="H49" s="50"/>
       <c r="I49" s="50"/>
@@ -4275,54 +4398,126 @@
     </row>
     <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="57">
-        <v>6</v>
-      </c>
-      <c r="B50" s="75"/>
-      <c r="C50" s="75"/>
+        <v>3</v>
+      </c>
+      <c r="B50" s="76"/>
+      <c r="C50" s="76"/>
       <c r="D50" s="62" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E50" s="62" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F50" s="51" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="G50" s="62" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="H50" s="50"/>
       <c r="I50" s="50"/>
       <c r="J50" s="50"/>
     </row>
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="57">
+        <v>4</v>
+      </c>
+      <c r="B51" s="74" t="s">
+        <v>318</v>
+      </c>
+      <c r="C51" s="74" t="s">
+        <v>319</v>
+      </c>
+      <c r="D51" s="62" t="s">
+        <v>244</v>
+      </c>
+      <c r="E51" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="F51" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="G51" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+    </row>
+    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="57">
+        <v>5</v>
+      </c>
+      <c r="B52" s="75"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="62" t="s">
+        <v>326</v>
+      </c>
+      <c r="E52" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="F52" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="G52" s="62" t="s">
+        <v>321</v>
+      </c>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+    </row>
+    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="57">
+        <v>6</v>
+      </c>
+      <c r="B53" s="76"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="E53" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="F53" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="G53" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="28">
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B22:B24"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="B45:B47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4381,20 +4576,20 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="79"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="47" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
       <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4482,10 +4677,10 @@
       <c r="A18" s="33">
         <v>1</v>
       </c>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="83" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="34" t="s">
@@ -4500,14 +4695,14 @@
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
       <c r="I18" s="34"/>
-      <c r="J18" s="84"/>
+      <c r="J18" s="85"/>
     </row>
     <row r="19" spans="1:10" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A19" s="33">
         <v>2</v>
       </c>
-      <c r="B19" s="81"/>
-      <c r="C19" s="83"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="84"/>
       <c r="D19" s="34" t="s">
         <v>27</v>
       </c>
@@ -4520,16 +4715,16 @@
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
       <c r="I19" s="34"/>
-      <c r="J19" s="85"/>
+      <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="33">
         <v>3</v>
       </c>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="83" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="34" t="s">
@@ -4544,14 +4739,14 @@
       <c r="G20" s="36"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
-      <c r="J20" s="85"/>
+      <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A21" s="33">
         <v>4</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="87"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="34" t="s">
         <v>33</v>
       </c>
@@ -4563,16 +4758,16 @@
       </c>
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
-      <c r="J21" s="85"/>
+      <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A22" s="33">
         <v>5</v>
       </c>
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="89" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="34" t="s">
@@ -4587,14 +4782,14 @@
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
-      <c r="J22" s="85"/>
+      <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A23" s="33">
         <v>6</v>
       </c>
-      <c r="B23" s="89"/>
-      <c r="C23" s="89"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
       <c r="D23" s="34" t="s">
         <v>40</v>
       </c>
@@ -4607,7 +4802,7 @@
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
-      <c r="J23" s="85"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A24" s="33">
@@ -4616,7 +4811,7 @@
       <c r="B24" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="89"/>
+      <c r="C24" s="90"/>
       <c r="D24" s="34" t="s">
         <v>44</v>
       </c>
@@ -4629,7 +4824,7 @@
       <c r="G24" s="34"/>
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
-      <c r="J24" s="85"/>
+      <c r="J24" s="86"/>
     </row>
     <row r="25" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A25" s="33">
@@ -4638,7 +4833,7 @@
       <c r="B25" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="89"/>
+      <c r="C25" s="90"/>
       <c r="D25" s="34" t="s">
         <v>48</v>
       </c>
@@ -4651,7 +4846,7 @@
       <c r="G25" s="34"/>
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
-      <c r="J25" s="85"/>
+      <c r="J25" s="86"/>
     </row>
     <row r="26" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A26" s="33">
@@ -4660,7 +4855,7 @@
       <c r="B26" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="89"/>
+      <c r="C26" s="90"/>
       <c r="D26" s="34" t="s">
         <v>52</v>
       </c>
@@ -4673,7 +4868,7 @@
       <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
-      <c r="J26" s="85"/>
+      <c r="J26" s="86"/>
     </row>
     <row r="27" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A27" s="33">
@@ -4682,7 +4877,7 @@
       <c r="B27" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="89"/>
+      <c r="C27" s="90"/>
       <c r="D27" s="34" t="s">
         <v>56</v>
       </c>
@@ -4695,16 +4890,16 @@
       <c r="G27" s="34"/>
       <c r="H27" s="34"/>
       <c r="I27" s="34"/>
-      <c r="J27" s="85"/>
+      <c r="J27" s="86"/>
     </row>
     <row r="28" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A28" s="33">
         <v>11</v>
       </c>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="77" t="s">
         <v>60</v>
       </c>
       <c r="D28" s="38" t="s">
@@ -4719,14 +4914,14 @@
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
       <c r="I28" s="34"/>
-      <c r="J28" s="86"/>
+      <c r="J28" s="87"/>
     </row>
     <row r="29" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A29" s="33">
         <v>12</v>
       </c>
-      <c r="B29" s="91"/>
-      <c r="C29" s="76"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="77"/>
       <c r="D29" s="38" t="s">
         <v>64</v>
       </c>
@@ -4739,7 +4934,7 @@
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
       <c r="I29" s="34"/>
-      <c r="J29" s="77"/>
+      <c r="J29" s="78"/>
     </row>
     <row r="30" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="33">
@@ -4763,7 +4958,7 @@
       <c r="G30" s="41"/>
       <c r="H30" s="41"/>
       <c r="I30" s="34"/>
-      <c r="J30" s="77"/>
+      <c r="J30" s="78"/>
     </row>
     <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="33">
@@ -4787,7 +4982,7 @@
       <c r="G31" s="34"/>
       <c r="H31" s="34"/>
       <c r="I31" s="34"/>
-      <c r="J31" s="77"/>
+      <c r="J31" s="78"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="43"/>

--- a/Dharish/Survey Genie/Test case.xlsx
+++ b/Dharish/Survey Genie/Test case.xlsx
@@ -1922,69 +1922,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1999,6 +1936,69 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2654,10 +2654,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="78" t="s">
         <v>90</v>
       </c>
       <c r="C2" s="55" t="s">
@@ -2683,8 +2683,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="55" t="s">
         <v>97</v>
       </c>
@@ -2708,8 +2708,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="55" t="s">
         <v>99</v>
       </c>
@@ -2733,10 +2733,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="79" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="55" t="s">
@@ -2762,8 +2762,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
-      <c r="B6" s="73"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="55" t="s">
         <v>106</v>
       </c>
@@ -2787,8 +2787,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
-      <c r="B7" s="73"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="55" t="s">
         <v>108</v>
       </c>
@@ -2812,10 +2812,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="78" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="55" t="s">
@@ -2841,8 +2841,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="55" t="s">
         <v>114</v>
       </c>
@@ -2866,8 +2866,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="55" t="s">
         <v>116</v>
       </c>
@@ -2891,10 +2891,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="78" t="s">
         <v>119</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -2920,8 +2920,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
-      <c r="B12" s="72"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="55" t="s">
         <v>122</v>
       </c>
@@ -2945,8 +2945,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="55" t="s">
         <v>124</v>
       </c>
@@ -2970,10 +2970,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="78" t="s">
         <v>127</v>
       </c>
       <c r="C14" s="55" t="s">
@@ -2999,8 +2999,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="55" t="s">
         <v>131</v>
       </c>
@@ -3024,8 +3024,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="72"/>
-      <c r="B16" s="72"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="55" t="s">
         <v>133</v>
       </c>
@@ -3049,10 +3049,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="78" t="s">
         <v>136</v>
       </c>
       <c r="C17" s="55" t="s">
@@ -3078,8 +3078,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="55" t="s">
         <v>140</v>
       </c>
@@ -3103,8 +3103,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="78"/>
       <c r="C19" s="55" t="s">
         <v>141</v>
       </c>
@@ -3128,10 +3128,10 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="78" t="s">
         <v>144</v>
       </c>
       <c r="C20" s="55" t="s">
@@ -3157,8 +3157,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="78"/>
       <c r="C21" s="55" t="s">
         <v>148</v>
       </c>
@@ -3182,8 +3182,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="78"/>
       <c r="C22" s="55" t="s">
         <v>150</v>
       </c>
@@ -3207,10 +3207,10 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="78" t="s">
         <v>153</v>
       </c>
       <c r="C23" s="55" t="s">
@@ -3236,8 +3236,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A24" s="72"/>
-      <c r="B24" s="72"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="78"/>
       <c r="C24" s="55" t="s">
         <v>157</v>
       </c>
@@ -3261,8 +3261,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A25" s="72"/>
-      <c r="B25" s="72"/>
+      <c r="A25" s="78"/>
+      <c r="B25" s="78"/>
       <c r="C25" s="55" t="s">
         <v>159</v>
       </c>
@@ -3321,9 +3321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:I11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3383,28 +3381,28 @@
       <c r="A4" s="57">
         <v>1</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="80" t="s">
         <v>265</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="80" t="s">
         <v>266</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="96" t="s">
+      <c r="E4" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="F4" s="97" t="s">
+      <c r="F4" s="76" t="s">
         <v>354</v>
       </c>
-      <c r="G4" s="96" t="s">
+      <c r="G4" s="75" t="s">
         <v>267</v>
       </c>
-      <c r="H4" s="98" t="s">
+      <c r="H4" s="77" t="s">
         <v>328</v>
       </c>
-      <c r="I4" s="98" t="s">
+      <c r="I4" s="77" t="s">
         <v>329</v>
       </c>
       <c r="J4" s="50"/>
@@ -3413,24 +3411,24 @@
       <c r="A5" s="57">
         <v>2</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="93" t="s">
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="72" t="s">
         <v>196</v>
       </c>
-      <c r="E5" s="93" t="s">
+      <c r="E5" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="73" t="s">
         <v>355</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="H5" s="95" t="s">
+      <c r="H5" s="74" t="s">
         <v>330</v>
       </c>
-      <c r="I5" s="95" t="s">
+      <c r="I5" s="74" t="s">
         <v>331</v>
       </c>
       <c r="J5" s="50"/>
@@ -3439,24 +3437,24 @@
       <c r="A6" s="57">
         <v>3</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="93" t="s">
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="93" t="s">
+      <c r="E6" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="73" t="s">
         <v>356</v>
       </c>
-      <c r="G6" s="93" t="s">
+      <c r="G6" s="72" t="s">
         <v>269</v>
       </c>
-      <c r="H6" s="95" t="s">
+      <c r="H6" s="74" t="s">
         <v>332</v>
       </c>
-      <c r="I6" s="95" t="s">
+      <c r="I6" s="74" t="s">
         <v>331</v>
       </c>
       <c r="J6" s="50"/>
@@ -3465,28 +3463,28 @@
       <c r="A7" s="71">
         <v>4</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="80" t="s">
         <v>265</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="80" t="s">
         <v>349</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="75" t="s">
         <v>350</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="75" t="s">
         <v>353</v>
       </c>
-      <c r="F7" s="97" t="s">
+      <c r="F7" s="76" t="s">
         <v>357</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="75" t="s">
         <v>267</v>
       </c>
-      <c r="H7" s="98" t="s">
+      <c r="H7" s="77" t="s">
         <v>328</v>
       </c>
-      <c r="I7" s="98" t="s">
+      <c r="I7" s="77" t="s">
         <v>329</v>
       </c>
       <c r="J7" s="50"/>
@@ -3495,24 +3493,24 @@
       <c r="A8" s="71">
         <v>5</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="93" t="s">
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="72" t="s">
         <v>351</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="72" t="s">
         <v>353</v>
       </c>
-      <c r="F8" s="94" t="s">
+      <c r="F8" s="73" t="s">
         <v>355</v>
       </c>
-      <c r="G8" s="93" t="s">
+      <c r="G8" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="H8" s="95" t="s">
+      <c r="H8" s="74" t="s">
         <v>330</v>
       </c>
-      <c r="I8" s="95" t="s">
+      <c r="I8" s="74" t="s">
         <v>331</v>
       </c>
       <c r="J8" s="50"/>
@@ -3521,24 +3519,24 @@
       <c r="A9" s="71">
         <v>6</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="93" t="s">
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="E9" s="93" t="s">
+      <c r="E9" s="72" t="s">
         <v>353</v>
       </c>
-      <c r="F9" s="94" t="s">
+      <c r="F9" s="73" t="s">
         <v>356</v>
       </c>
-      <c r="G9" s="93" t="s">
+      <c r="G9" s="72" t="s">
         <v>269</v>
       </c>
-      <c r="H9" s="95" t="s">
+      <c r="H9" s="74" t="s">
         <v>332</v>
       </c>
-      <c r="I9" s="95" t="s">
+      <c r="I9" s="74" t="s">
         <v>331</v>
       </c>
       <c r="J9" s="50"/>
@@ -3547,28 +3545,28 @@
       <c r="A10" s="71">
         <v>7</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="80" t="s">
         <v>270</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="D10" s="96" t="s">
+      <c r="D10" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="E10" s="96" t="s">
+      <c r="E10" s="75" t="s">
         <v>199</v>
       </c>
-      <c r="F10" s="97" t="s">
+      <c r="F10" s="76" t="s">
         <v>333</v>
       </c>
-      <c r="G10" s="96" t="s">
+      <c r="G10" s="75" t="s">
         <v>272</v>
       </c>
-      <c r="H10" s="98" t="s">
+      <c r="H10" s="77" t="s">
         <v>348</v>
       </c>
-      <c r="I10" s="98" t="s">
+      <c r="I10" s="77" t="s">
         <v>329</v>
       </c>
       <c r="J10" s="50"/>
@@ -3577,8 +3575,8 @@
       <c r="A11" s="71">
         <v>8</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
       <c r="D11" s="62" t="s">
         <v>200</v>
       </c>
@@ -3599,8 +3597,8 @@
       <c r="A12" s="71">
         <v>9</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="62" t="s">
         <v>201</v>
       </c>
@@ -3621,22 +3619,22 @@
       <c r="A13" s="71">
         <v>10</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="80" t="s">
         <v>275</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="80" t="s">
         <v>276</v>
       </c>
-      <c r="D13" s="96" t="s">
+      <c r="D13" s="75" t="s">
         <v>202</v>
       </c>
-      <c r="E13" s="96" t="s">
+      <c r="E13" s="75" t="s">
         <v>203</v>
       </c>
-      <c r="F13" s="97" t="s">
+      <c r="F13" s="76" t="s">
         <v>336</v>
       </c>
-      <c r="G13" s="96" t="s">
+      <c r="G13" s="75" t="s">
         <v>277</v>
       </c>
       <c r="H13" s="50"/>
@@ -3647,8 +3645,8 @@
       <c r="A14" s="71">
         <v>11</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
       <c r="D14" s="62" t="s">
         <v>204</v>
       </c>
@@ -3669,8 +3667,8 @@
       <c r="A15" s="71">
         <v>12</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="62" t="s">
         <v>205</v>
       </c>
@@ -3691,22 +3689,22 @@
       <c r="A16" s="71">
         <v>13</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="80" t="s">
         <v>280</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="80" t="s">
         <v>281</v>
       </c>
-      <c r="D16" s="96" t="s">
+      <c r="D16" s="75" t="s">
         <v>206</v>
       </c>
-      <c r="E16" s="96" t="s">
+      <c r="E16" s="75" t="s">
         <v>207</v>
       </c>
-      <c r="F16" s="97" t="s">
+      <c r="F16" s="76" t="s">
         <v>339</v>
       </c>
-      <c r="G16" s="96" t="s">
+      <c r="G16" s="75" t="s">
         <v>282</v>
       </c>
       <c r="H16" s="50"/>
@@ -3717,8 +3715,8 @@
       <c r="A17" s="71">
         <v>14</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
       <c r="D17" s="62" t="s">
         <v>208</v>
       </c>
@@ -3739,8 +3737,8 @@
       <c r="A18" s="71">
         <v>15</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="62" t="s">
         <v>209</v>
       </c>
@@ -3761,22 +3759,22 @@
       <c r="A19" s="71">
         <v>16</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="80" t="s">
         <v>286</v>
       </c>
-      <c r="D19" s="96" t="s">
+      <c r="D19" s="75" t="s">
         <v>210</v>
       </c>
-      <c r="E19" s="96" t="s">
+      <c r="E19" s="75" t="s">
         <v>211</v>
       </c>
-      <c r="F19" s="97" t="s">
+      <c r="F19" s="76" t="s">
         <v>342</v>
       </c>
-      <c r="G19" s="96" t="s">
+      <c r="G19" s="75" t="s">
         <v>287</v>
       </c>
       <c r="H19" s="50"/>
@@ -3787,8 +3785,8 @@
       <c r="A20" s="71">
         <v>17</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
       <c r="D20" s="62" t="s">
         <v>212</v>
       </c>
@@ -3809,8 +3807,8 @@
       <c r="A21" s="71">
         <v>18</v>
       </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
       <c r="D21" s="62" t="s">
         <v>213</v>
       </c>
@@ -3831,22 +3829,22 @@
       <c r="A22" s="57">
         <v>19</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="80" t="s">
         <v>290</v>
       </c>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="80" t="s">
         <v>291</v>
       </c>
-      <c r="D22" s="96" t="s">
+      <c r="D22" s="75" t="s">
         <v>214</v>
       </c>
-      <c r="E22" s="96" t="s">
+      <c r="E22" s="75" t="s">
         <v>215</v>
       </c>
-      <c r="F22" s="97" t="s">
+      <c r="F22" s="76" t="s">
         <v>345</v>
       </c>
-      <c r="G22" s="96" t="s">
+      <c r="G22" s="75" t="s">
         <v>292</v>
       </c>
       <c r="H22" s="50"/>
@@ -3857,8 +3855,8 @@
       <c r="A23" s="57">
         <v>20</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="62" t="s">
         <v>216</v>
       </c>
@@ -3879,8 +3877,8 @@
       <c r="A24" s="57">
         <v>21</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
       <c r="D24" s="62" t="s">
         <v>217</v>
       </c>
@@ -3942,10 +3940,10 @@
       <c r="A29" s="57">
         <v>1</v>
       </c>
-      <c r="B29" s="74" t="s">
+      <c r="B29" s="80" t="s">
         <v>294</v>
       </c>
-      <c r="C29" s="74" t="s">
+      <c r="C29" s="80" t="s">
         <v>295</v>
       </c>
       <c r="D29" s="62" t="s">
@@ -3968,8 +3966,8 @@
       <c r="A30" s="57">
         <v>2</v>
       </c>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
       <c r="D30" s="62" t="s">
         <v>322</v>
       </c>
@@ -3990,8 +3988,8 @@
       <c r="A31" s="57">
         <v>3</v>
       </c>
-      <c r="B31" s="76"/>
-      <c r="C31" s="76"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="62" t="s">
         <v>221</v>
       </c>
@@ -4012,10 +4010,10 @@
       <c r="A32" s="57">
         <v>4</v>
       </c>
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="80" t="s">
         <v>299</v>
       </c>
-      <c r="C32" s="74" t="s">
+      <c r="C32" s="80" t="s">
         <v>300</v>
       </c>
       <c r="D32" s="62" t="s">
@@ -4038,8 +4036,8 @@
       <c r="A33" s="57">
         <v>5</v>
       </c>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
       <c r="D33" s="62" t="s">
         <v>224</v>
       </c>
@@ -4060,8 +4058,8 @@
       <c r="A34" s="57">
         <v>6</v>
       </c>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
       <c r="D34" s="62" t="s">
         <v>225</v>
       </c>
@@ -4082,10 +4080,10 @@
       <c r="A35" s="57">
         <v>7</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="80" t="s">
         <v>303</v>
       </c>
-      <c r="C35" s="74" t="s">
+      <c r="C35" s="80" t="s">
         <v>226</v>
       </c>
       <c r="D35" s="62" t="s">
@@ -4108,8 +4106,8 @@
       <c r="A36" s="57">
         <v>8</v>
       </c>
-      <c r="B36" s="75"/>
-      <c r="C36" s="75"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
       <c r="D36" s="62" t="s">
         <v>255</v>
       </c>
@@ -4130,8 +4128,8 @@
       <c r="A37" s="57">
         <v>9</v>
       </c>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
       <c r="D37" s="62" t="s">
         <v>229</v>
       </c>
@@ -4152,10 +4150,10 @@
       <c r="A38" s="57">
         <v>10</v>
       </c>
-      <c r="B38" s="74" t="s">
+      <c r="B38" s="80" t="s">
         <v>307</v>
       </c>
-      <c r="C38" s="74" t="s">
+      <c r="C38" s="80" t="s">
         <v>230</v>
       </c>
       <c r="D38" s="62" t="s">
@@ -4178,8 +4176,8 @@
       <c r="A39" s="57">
         <v>11</v>
       </c>
-      <c r="B39" s="75"/>
-      <c r="C39" s="75"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="81"/>
       <c r="D39" s="62" t="s">
         <v>324</v>
       </c>
@@ -4200,8 +4198,8 @@
       <c r="A40" s="57">
         <v>12</v>
       </c>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
       <c r="D40" s="62" t="s">
         <v>233</v>
       </c>
@@ -4222,10 +4220,10 @@
       <c r="A41" s="57">
         <v>13</v>
       </c>
-      <c r="B41" s="74" t="s">
+      <c r="B41" s="80" t="s">
         <v>312</v>
       </c>
-      <c r="C41" s="74" t="s">
+      <c r="C41" s="80" t="s">
         <v>291</v>
       </c>
       <c r="D41" s="62" t="s">
@@ -4248,8 +4246,8 @@
       <c r="A42" s="57">
         <v>14</v>
       </c>
-      <c r="B42" s="75"/>
-      <c r="C42" s="75"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
       <c r="D42" s="62" t="s">
         <v>236</v>
       </c>
@@ -4270,8 +4268,8 @@
       <c r="A43" s="57">
         <v>15</v>
       </c>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="82"/>
       <c r="D43" s="62" t="s">
         <v>237</v>
       </c>
@@ -4352,10 +4350,10 @@
       <c r="A48" s="57">
         <v>1</v>
       </c>
-      <c r="B48" s="74" t="s">
+      <c r="B48" s="80" t="s">
         <v>316</v>
       </c>
-      <c r="C48" s="74" t="s">
+      <c r="C48" s="80" t="s">
         <v>300</v>
       </c>
       <c r="D48" s="62" t="s">
@@ -4378,8 +4376,8 @@
       <c r="A49" s="57">
         <v>2</v>
       </c>
-      <c r="B49" s="75"/>
-      <c r="C49" s="75"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="81"/>
       <c r="D49" s="62" t="s">
         <v>241</v>
       </c>
@@ -4400,8 +4398,8 @@
       <c r="A50" s="57">
         <v>3</v>
       </c>
-      <c r="B50" s="76"/>
-      <c r="C50" s="76"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="82"/>
       <c r="D50" s="62" t="s">
         <v>242</v>
       </c>
@@ -4422,10 +4420,10 @@
       <c r="A51" s="57">
         <v>4</v>
       </c>
-      <c r="B51" s="74" t="s">
+      <c r="B51" s="80" t="s">
         <v>318</v>
       </c>
-      <c r="C51" s="74" t="s">
+      <c r="C51" s="80" t="s">
         <v>319</v>
       </c>
       <c r="D51" s="62" t="s">
@@ -4448,8 +4446,8 @@
       <c r="A52" s="57">
         <v>5</v>
       </c>
-      <c r="B52" s="75"/>
-      <c r="C52" s="75"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="81"/>
       <c r="D52" s="62" t="s">
         <v>326</v>
       </c>
@@ -4470,8 +4468,8 @@
       <c r="A53" s="57">
         <v>6</v>
       </c>
-      <c r="B53" s="76"/>
-      <c r="C53" s="76"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="82"/>
       <c r="D53" s="62" t="s">
         <v>246</v>
       </c>
@@ -4490,6 +4488,26 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
     <mergeCell ref="B51:B53"/>
     <mergeCell ref="C51:C53"/>
     <mergeCell ref="C38:C40"/>
@@ -4498,26 +4516,6 @@
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="C48:C50"/>
     <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4576,20 +4574,20 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="80"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="47" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
       <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4677,10 +4675,10 @@
       <c r="A18" s="33">
         <v>1</v>
       </c>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="83" t="s">
+      <c r="C18" s="89" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="34" t="s">
@@ -4695,14 +4693,14 @@
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
       <c r="I18" s="34"/>
-      <c r="J18" s="85"/>
+      <c r="J18" s="91"/>
     </row>
     <row r="19" spans="1:10" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A19" s="33">
         <v>2</v>
       </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="84"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="90"/>
       <c r="D19" s="34" t="s">
         <v>27</v>
       </c>
@@ -4715,16 +4713,16 @@
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
       <c r="I19" s="34"/>
-      <c r="J19" s="86"/>
+      <c r="J19" s="92"/>
     </row>
     <row r="20" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="33">
         <v>3</v>
       </c>
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="89" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="34" t="s">
@@ -4739,14 +4737,14 @@
       <c r="G20" s="36"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
-      <c r="J20" s="86"/>
+      <c r="J20" s="92"/>
     </row>
     <row r="21" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A21" s="33">
         <v>4</v>
       </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="88"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="94"/>
       <c r="D21" s="34" t="s">
         <v>33</v>
       </c>
@@ -4758,16 +4756,16 @@
       </c>
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
-      <c r="J21" s="86"/>
+      <c r="J21" s="92"/>
     </row>
     <row r="22" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A22" s="33">
         <v>5</v>
       </c>
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="89" t="s">
+      <c r="C22" s="95" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="34" t="s">
@@ -4782,14 +4780,14 @@
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
-      <c r="J22" s="86"/>
+      <c r="J22" s="92"/>
     </row>
     <row r="23" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A23" s="33">
         <v>6</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
       <c r="D23" s="34" t="s">
         <v>40</v>
       </c>
@@ -4802,7 +4800,7 @@
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
-      <c r="J23" s="86"/>
+      <c r="J23" s="92"/>
     </row>
     <row r="24" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A24" s="33">
@@ -4811,7 +4809,7 @@
       <c r="B24" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="90"/>
+      <c r="C24" s="96"/>
       <c r="D24" s="34" t="s">
         <v>44</v>
       </c>
@@ -4824,7 +4822,7 @@
       <c r="G24" s="34"/>
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
-      <c r="J24" s="86"/>
+      <c r="J24" s="92"/>
     </row>
     <row r="25" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A25" s="33">
@@ -4833,7 +4831,7 @@
       <c r="B25" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="90"/>
+      <c r="C25" s="96"/>
       <c r="D25" s="34" t="s">
         <v>48</v>
       </c>
@@ -4846,7 +4844,7 @@
       <c r="G25" s="34"/>
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
-      <c r="J25" s="86"/>
+      <c r="J25" s="92"/>
     </row>
     <row r="26" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A26" s="33">
@@ -4855,7 +4853,7 @@
       <c r="B26" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="90"/>
+      <c r="C26" s="96"/>
       <c r="D26" s="34" t="s">
         <v>52</v>
       </c>
@@ -4868,7 +4866,7 @@
       <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
-      <c r="J26" s="86"/>
+      <c r="J26" s="92"/>
     </row>
     <row r="27" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A27" s="33">
@@ -4877,7 +4875,7 @@
       <c r="B27" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="90"/>
+      <c r="C27" s="96"/>
       <c r="D27" s="34" t="s">
         <v>56</v>
       </c>
@@ -4890,16 +4888,16 @@
       <c r="G27" s="34"/>
       <c r="H27" s="34"/>
       <c r="I27" s="34"/>
-      <c r="J27" s="86"/>
+      <c r="J27" s="92"/>
     </row>
     <row r="28" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A28" s="33">
         <v>11</v>
       </c>
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="77" t="s">
+      <c r="C28" s="83" t="s">
         <v>60</v>
       </c>
       <c r="D28" s="38" t="s">
@@ -4914,14 +4912,14 @@
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
       <c r="I28" s="34"/>
-      <c r="J28" s="87"/>
+      <c r="J28" s="93"/>
     </row>
     <row r="29" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A29" s="33">
         <v>12</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="77"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="83"/>
       <c r="D29" s="38" t="s">
         <v>64</v>
       </c>
@@ -4934,7 +4932,7 @@
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
       <c r="I29" s="34"/>
-      <c r="J29" s="78"/>
+      <c r="J29" s="84"/>
     </row>
     <row r="30" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="33">
@@ -4958,7 +4956,7 @@
       <c r="G30" s="41"/>
       <c r="H30" s="41"/>
       <c r="I30" s="34"/>
-      <c r="J30" s="78"/>
+      <c r="J30" s="84"/>
     </row>
     <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="33">
@@ -4982,7 +4980,7 @@
       <c r="G31" s="34"/>
       <c r="H31" s="34"/>
       <c r="I31" s="34"/>
-      <c r="J31" s="78"/>
+      <c r="J31" s="84"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="43"/>
